--- a/writable/exports/ImportItemTemplate.xlsx
+++ b/writable/exports/ImportItemTemplate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
   <si>
     <t>item_name</t>
   </si>
@@ -117,6 +117,9 @@
     <t>item_is_active</t>
   </si>
   <si>
+    <t>item_hsn_gst</t>
+  </si>
+  <si>
     <t>Item Name</t>
   </si>
   <si>
@@ -196,6 +199,9 @@
   </si>
   <si>
     <t>Is Active</t>
+  </si>
+  <si>
+    <t>Gst %</t>
   </si>
   <si>
     <t>Fenner</t>
@@ -714,9 +720,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve" id="1" name="Table1" displayName="ImportItemTable" ref="A2:AG3" headerRowCount="1" totalsRowCount="0">
-  <autoFilter ref="A2:AG3"/>
-  <tableColumns count="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve" id="1" name="Table1" displayName="ImportItemTable" ref="A2:AH3" headerRowCount="1" totalsRowCount="0">
+  <autoFilter ref="A2:AH3"/>
+  <tableColumns count="34">
     <tableColumn id="1" name="Item Name"/>
     <tableColumn id="2" name="Supplier Code"/>
     <tableColumn id="3" name="Class"/>
@@ -750,6 +756,7 @@
     <tableColumn id="31" name="Expirable"/>
     <tableColumn id="32" name="Inspection Required"/>
     <tableColumn id="33" name="Is Active"/>
+    <tableColumn id="34" name="Gst %"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1045,7 +1052,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,7 +1060,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1153,109 +1160,115 @@
       <c r="AG1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:33">
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
         <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>
       <c r="P2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q2" t="s">
         <v>16</v>
       </c>
       <c r="R2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>60</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="G3" t="str">
         <f>IFERROR(VLOOKUP(F3,Masters!$A$2:$B$7,2,FALSE),"")</f>
         <v/>
@@ -1367,19 +1380,19 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1391,717 +1404,717 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="C8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="C9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="E10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="E11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="E12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F12">
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="E13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F13">
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="E14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14">
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="E15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F15">
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="E16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F16">
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="E17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F17">
         <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="E18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F18">
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="E19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F19">
         <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="E20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F20">
         <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="E21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F21">
         <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="E22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F22">
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="E23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F23">
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J23" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="E24" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F24">
         <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="E25" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F25">
         <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J25" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="E26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F26">
         <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J26" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="E27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F27">
         <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J27" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="E28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F28">
         <v>27</v>
       </c>
       <c r="I28" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="E29" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F29">
         <v>28</v>
       </c>
       <c r="I29" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J29" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="E30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F30">
         <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J30" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="E31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F31">
         <v>30</v>
       </c>
       <c r="I31" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="E32" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F32">
         <v>31</v>
       </c>
       <c r="I32" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J32" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="E33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F33">
         <v>32</v>
       </c>
       <c r="I33" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J33" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="E34" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F34">
         <v>33</v>
       </c>
       <c r="I34" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="E35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F35">
         <v>34</v>
       </c>
       <c r="I35" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J35" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="E36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F36">
         <v>35</v>
       </c>
       <c r="I36" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J36" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="E37" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F37">
         <v>36</v>
       </c>
       <c r="I37" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J37" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="E38" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F38">
         <v>37</v>
       </c>
       <c r="I38" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J38" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="E39" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F39">
         <v>38</v>
       </c>
       <c r="I39" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J39" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="E40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F40">
         <v>39</v>
       </c>
       <c r="I40" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J40" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="E41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F41">
         <v>40</v>
       </c>
       <c r="I41" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J41" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="E42" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F42">
         <v>41</v>
       </c>
       <c r="I42" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J42" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="E43" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F43">
         <v>42</v>
       </c>
       <c r="I43" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J43" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="E44" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F44">
         <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="E45" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F45">
         <v>44</v>
       </c>
       <c r="I45" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="E46" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F46">
         <v>45</v>
       </c>
       <c r="I46" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J46" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="E47" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F47">
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J47" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="E48" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F48">
         <v>47</v>
@@ -2109,7 +2122,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="E49" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F49">
         <v>48</v>
@@ -2117,7 +2130,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="E50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F50">
         <v>49</v>
@@ -2125,7 +2138,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="E51" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F51">
         <v>50</v>
@@ -2133,7 +2146,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="E52" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F52">
         <v>51</v>

--- a/writable/exports/ImportItemTemplate.xlsx
+++ b/writable/exports/ImportItemTemplate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
   <si>
     <t>item_name</t>
   </si>
@@ -36,37 +36,22 @@
     <t>item_brand_name</t>
   </si>
   <si>
-    <t>item_brand_id</t>
-  </si>
-  <si>
     <t>item_category_name</t>
   </si>
   <si>
-    <t>item_category_id</t>
-  </si>
-  <si>
     <t>item_sub_group_name</t>
   </si>
   <si>
-    <t>item_sub_group_id</t>
+    <t>item_uqc_name</t>
+  </si>
+  <si>
+    <t>item_pack_uqc_name</t>
   </si>
   <si>
     <t>item_hsn_code</t>
   </si>
   <si>
-    <t>item_hsn_id</t>
-  </si>
-  <si>
-    <t>item_uqc_name</t>
-  </si>
-  <si>
-    <t>item_uqc_id</t>
-  </si>
-  <si>
-    <t>item_pack_uqc_name</t>
-  </si>
-  <si>
-    <t>item_pack_uqc_id</t>
+    <t>item_hsn_gst</t>
   </si>
   <si>
     <t>item_description</t>
@@ -117,9 +102,6 @@
     <t>item_is_active</t>
   </si>
   <si>
-    <t>item_hsn_gst</t>
-  </si>
-  <si>
     <t>Item Name</t>
   </si>
   <si>
@@ -144,13 +126,16 @@
     <t>Sub Group Name</t>
   </si>
   <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Pack Unit</t>
+  </si>
+  <si>
     <t>HSN Code</t>
   </si>
   <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Pack Unit</t>
+    <t>Gst %</t>
   </si>
   <si>
     <t>Description</t>
@@ -201,9 +186,6 @@
     <t>Is Active</t>
   </si>
   <si>
-    <t>Gst %</t>
-  </si>
-  <si>
     <t>Fenner</t>
   </si>
   <si>
@@ -402,274 +384,139 @@
     <t>BAGS</t>
   </si>
   <si>
-    <t>BAG</t>
-  </si>
-  <si>
     <t>BALE</t>
   </si>
   <si>
-    <t>BAL</t>
-  </si>
-  <si>
     <t>BILLION OF UNITS</t>
   </si>
   <si>
-    <t>BOU</t>
-  </si>
-  <si>
     <t>BOTTLES</t>
   </si>
   <si>
-    <t>BTL</t>
-  </si>
-  <si>
     <t>BOX</t>
   </si>
   <si>
     <t>BUCKLES</t>
   </si>
   <si>
-    <t>BKL</t>
-  </si>
-  <si>
     <t>BUNCHES</t>
   </si>
   <si>
-    <t>BUN</t>
-  </si>
-  <si>
     <t>BUNDLES</t>
   </si>
   <si>
-    <t>BDL</t>
-  </si>
-  <si>
     <t>CANS</t>
   </si>
   <si>
-    <t>CAN</t>
-  </si>
-  <si>
     <t>CARTONS</t>
   </si>
   <si>
-    <t>CTN</t>
-  </si>
-  <si>
     <t>CENTIMETERS</t>
   </si>
   <si>
-    <t>CMS</t>
-  </si>
-  <si>
     <t>CUBIC CENTIMETERS</t>
   </si>
   <si>
-    <t>CCM</t>
-  </si>
-  <si>
     <t>CUBIC METERS</t>
   </si>
   <si>
-    <t>CBM</t>
-  </si>
-  <si>
     <t>DOZENS</t>
   </si>
   <si>
-    <t>DOZ</t>
-  </si>
-  <si>
     <t>DRUMS</t>
   </si>
   <si>
-    <t>DRM</t>
-  </si>
-  <si>
     <t>GRAMMES</t>
   </si>
   <si>
-    <t>GMS</t>
-  </si>
-  <si>
     <t>GREAT GROSS</t>
   </si>
   <si>
-    <t>GGK</t>
-  </si>
-  <si>
     <t>GROSS</t>
   </si>
   <si>
-    <t>GRS</t>
-  </si>
-  <si>
     <t>GROSS YARDS</t>
   </si>
   <si>
-    <t>GYD</t>
-  </si>
-  <si>
     <t>KILOGRAMS</t>
   </si>
   <si>
-    <t>KGS</t>
-  </si>
-  <si>
     <t>KILOLITRE</t>
   </si>
   <si>
-    <t>KLR</t>
-  </si>
-  <si>
     <t>KILOMETRE</t>
   </si>
   <si>
-    <t>KME</t>
-  </si>
-  <si>
     <t>LITRES</t>
   </si>
   <si>
-    <t>LTR</t>
-  </si>
-  <si>
     <t>METERS</t>
   </si>
   <si>
-    <t>MTR</t>
-  </si>
-  <si>
     <t>METRIC TON</t>
   </si>
   <si>
-    <t>MTS</t>
-  </si>
-  <si>
     <t>MILLI LITRES</t>
   </si>
   <si>
-    <t>MLS</t>
-  </si>
-  <si>
     <t>MILLILITRE</t>
   </si>
   <si>
-    <t>MLT</t>
-  </si>
-  <si>
     <t>NUMBERS</t>
   </si>
   <si>
-    <t>NOS</t>
-  </si>
-  <si>
     <t>OTHERS</t>
   </si>
   <si>
-    <t>OTH</t>
-  </si>
-  <si>
     <t>PACKS</t>
   </si>
   <si>
-    <t>PAC</t>
-  </si>
-  <si>
     <t>PAIRS</t>
   </si>
   <si>
-    <t>PRS</t>
-  </si>
-  <si>
     <t>PIECES</t>
   </si>
   <si>
-    <t>PCS</t>
-  </si>
-  <si>
     <t>QUINTAL</t>
   </si>
   <si>
-    <t>QTL</t>
-  </si>
-  <si>
     <t>ROLLS</t>
   </si>
   <si>
-    <t>ROL</t>
-  </si>
-  <si>
     <t>SETS</t>
   </si>
   <si>
-    <t>SET</t>
-  </si>
-  <si>
     <t>SQUARE FEET</t>
   </si>
   <si>
-    <t>SQF</t>
-  </si>
-  <si>
     <t>SQUARE METERS</t>
   </si>
   <si>
-    <t>SQM</t>
-  </si>
-  <si>
     <t>SQUARE YARDS</t>
   </si>
   <si>
-    <t>SQY</t>
-  </si>
-  <si>
     <t>TABLETS</t>
   </si>
   <si>
-    <t>TBS</t>
-  </si>
-  <si>
     <t>TEN GROSS</t>
   </si>
   <si>
-    <t>TGM</t>
-  </si>
-  <si>
     <t>THOUSANDS</t>
   </si>
   <si>
-    <t>THD</t>
-  </si>
-  <si>
     <t>TONNES</t>
   </si>
   <si>
-    <t>TON</t>
-  </si>
-  <si>
     <t>TUBES</t>
   </si>
   <si>
-    <t>TUB</t>
-  </si>
-  <si>
     <t>UNITS</t>
   </si>
   <si>
-    <t>UNT</t>
-  </si>
-  <si>
     <t>US GALLONS</t>
   </si>
   <si>
-    <t>UGS</t>
-  </si>
-  <si>
     <t>YARDS</t>
-  </si>
-  <si>
-    <t>YDS</t>
   </si>
 </sst>
 </file>
@@ -720,43 +567,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve" id="1" name="Table1" displayName="ImportItemTable" ref="A2:AH3" headerRowCount="1" totalsRowCount="0">
-  <autoFilter ref="A2:AH3"/>
-  <tableColumns count="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve" id="1" name="Table1" displayName="ImportItemTable" ref="A2:AB3" headerRowCount="1" totalsRowCount="0">
+  <autoFilter ref="A2:AB3"/>
+  <tableColumns count="28">
     <tableColumn id="1" name="Item Name"/>
     <tableColumn id="2" name="Supplier Code"/>
     <tableColumn id="3" name="Class"/>
     <tableColumn id="4" name="Nature"/>
     <tableColumn id="5" name="Item Manufacturing Type"/>
     <tableColumn id="6" name="Brand"/>
-    <tableColumn id="7" name="item_brand_id"/>
-    <tableColumn id="8" name="Category Name"/>
-    <tableColumn id="9" name="item_category_id"/>
-    <tableColumn id="10" name="Sub Group Name"/>
-    <tableColumn id="11" name="item_sub_group_id"/>
-    <tableColumn id="12" name="HSN Code"/>
-    <tableColumn id="13" name="item_hsn_id"/>
-    <tableColumn id="14" name="Unit"/>
-    <tableColumn id="15" name="item_uqc_id"/>
-    <tableColumn id="16" name="Pack Unit"/>
-    <tableColumn id="17" name="item_pack_uqc_id"/>
-    <tableColumn id="18" name="Description"/>
-    <tableColumn id="19" name="Supplier Description"/>
-    <tableColumn id="20" name="Quality Check Link Url"/>
-    <tableColumn id="21" name="Drawing No"/>
-    <tableColumn id="22" name="Remark"/>
-    <tableColumn id="23" name="MOQ"/>
-    <tableColumn id="24" name="MPQ"/>
-    <tableColumn id="25" name="Length CMS"/>
-    <tableColumn id="26" name="Width CMS"/>
-    <tableColumn id="27" name="Height CMS"/>
-    <tableColumn id="28" name="Weight KG"/>
-    <tableColumn id="29" name="Pack Conversion"/>
-    <tableColumn id="30" name="Spare Part"/>
-    <tableColumn id="31" name="Expirable"/>
-    <tableColumn id="32" name="Inspection Required"/>
-    <tableColumn id="33" name="Is Active"/>
-    <tableColumn id="34" name="Gst %"/>
+    <tableColumn id="7" name="Category Name"/>
+    <tableColumn id="8" name="Sub Group Name"/>
+    <tableColumn id="9" name="Unit"/>
+    <tableColumn id="10" name="Pack Unit"/>
+    <tableColumn id="11" name="HSN Code"/>
+    <tableColumn id="12" name="Gst %"/>
+    <tableColumn id="13" name="Description"/>
+    <tableColumn id="14" name="Supplier Description"/>
+    <tableColumn id="15" name="Quality Check Link Url"/>
+    <tableColumn id="16" name="Drawing No"/>
+    <tableColumn id="17" name="Remark"/>
+    <tableColumn id="18" name="MOQ"/>
+    <tableColumn id="19" name="MPQ"/>
+    <tableColumn id="20" name="Length CMS"/>
+    <tableColumn id="21" name="Width CMS"/>
+    <tableColumn id="22" name="Height CMS"/>
+    <tableColumn id="23" name="Weight KG"/>
+    <tableColumn id="24" name="Pack Conversion"/>
+    <tableColumn id="25" name="Spare Part"/>
+    <tableColumn id="26" name="Expirable"/>
+    <tableColumn id="27" name="Inspection Required"/>
+    <tableColumn id="28" name="Is Active"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1052,7 +893,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1060,7 +901,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1145,76 +986,58 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
+      <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
         <v>40</v>
       </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>41</v>
       </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>42</v>
       </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>43</v>
       </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>44</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>16</v>
       </c>
       <c r="R2" t="s">
         <v>45</v>
@@ -1249,79 +1072,36 @@
       <c r="AB2" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="G3" t="str">
-        <f>IFERROR(VLOOKUP(F3,Masters!$A$2:$B$7,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I3" t="str">
-        <f>IFERROR(VLOOKUP(H3,Masters!$C$2:$D$9,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K3" t="str">
-        <f>IFERROR(VLOOKUP(J3,Masters!$E$2:$F$52,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M3" t="str">
-        <f>IFERROR(VLOOKUP(L3,Masters!$G$2:$H$2,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="O3" t="str">
-        <f>IFERROR(VLOOKUP(N3,Masters!$I$2:$J$47,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q3" t="str">
-        <f>IFERROR(VLOOKUP(P3,Masters!$I$2:$J$47,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
+    </row>
+    <row r="3" spans="1:28"/>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="Invalid Selection" error="Please select a valid option from the dropdown." sqref="C3">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="Invalid Selection" error="Please select a valid option from the dropdown." sqref="C3">
       <formula1>"listed,non-listed,not-assign"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="Invalid Selection" error="Please select a valid option from the dropdown." sqref="D3">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="Invalid Selection" error="Please select a valid option from the dropdown." sqref="D3">
       <formula1>"Capex,Packaging,Services,Saleable,Consumable,MRO,NoBuy,NoStock"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="Invalid Selection" error="Please select a valid option from the dropdown." sqref="E3">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="Invalid Selection" error="Please select a valid option from the dropdown." sqref="E3">
       <formula1>"FinishedProduct,RawMaterial,SemiFinished,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="Invalid Selection" error="Please select a valid option from the dropdown." sqref="F3">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="F3">
       <formula1>Masters!$A$2:$A$7</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="Invalid Selection" error="Please select a valid option from the dropdown." sqref="H3">
-      <formula1>Masters!$C$2:$C$9</formula1>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="G3">
+      <formula1>Masters!$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="Invalid Selection" error="Please select a valid option from the dropdown." sqref="J3">
-      <formula1>Masters!$E$2:$E$52</formula1>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="H3">
+      <formula1>Masters!$C$2:$C$52</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="Invalid Selection" error="Please select a valid option from the dropdown." sqref="L3">
-      <formula1>Masters!$G$2:$G$2</formula1>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="I3">
+      <formula1>Masters!$D$2:$D$47</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="Invalid Selection" error="Please select a valid option from the dropdown." sqref="N3">
-      <formula1>Masters!$I$2:$I$47</formula1>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="J3">
+      <formula1>Masters!$D$2:$D$47</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="Invalid Selection" error="Please select a valid option from the dropdown." sqref="P3">
-      <formula1>Masters!$I$2:$I$47</formula1>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="K3">
+      <formula1>Masters!$E$2:$E$11</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -1338,7 +1118,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1346,7 +1126,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1360,796 +1140,472 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3">
+        <v>271019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4">
+        <v>940510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5">
+        <v>39172990</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6">
+        <v>42034010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7">
+        <v>68053000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" t="s">
         <v>68</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C8" t="s">
         <v>76</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>4003</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="D8" t="s">
         <v>127</v>
       </c>
-      <c r="J2" t="s">
+      <c r="E8">
+        <v>82045000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="E9">
+        <v>82070090</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
         <v>129</v>
       </c>
-      <c r="J3" t="s">
+      <c r="E10">
+        <v>84129090</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="E11">
+        <v>85362030</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
         <v>131</v>
       </c>
-      <c r="J4" t="s">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="I5" t="s">
+    <row r="14" spans="1:5">
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
         <v>133</v>
       </c>
-      <c r="J5" t="s">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
+    <row r="16" spans="1:5">
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" t="s">
         <v>135</v>
       </c>
-      <c r="J6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
+    </row>
+    <row r="17" spans="1:5">
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
         <v>136</v>
       </c>
-      <c r="J7" t="s">
+    </row>
+    <row r="18" spans="1:5">
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="C8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="I8" t="s">
+    <row r="19" spans="1:5">
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
         <v>138</v>
       </c>
-      <c r="J8" t="s">
+    </row>
+    <row r="20" spans="1:5">
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="C9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="I9" t="s">
+    <row r="21" spans="1:5">
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
         <v>140</v>
       </c>
-      <c r="J9" t="s">
+    </row>
+    <row r="22" spans="1:5">
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="E10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="I10" t="s">
+    <row r="23" spans="1:5">
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
         <v>142</v>
       </c>
-      <c r="J10" t="s">
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="E11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="I11" t="s">
+    <row r="25" spans="1:5">
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
         <v>144</v>
       </c>
-      <c r="J11" t="s">
+    </row>
+    <row r="26" spans="1:5">
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="E12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12">
-        <v>11</v>
-      </c>
-      <c r="I12" t="s">
+    <row r="27" spans="1:5">
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" t="s">
         <v>146</v>
       </c>
-      <c r="J12" t="s">
+    </row>
+    <row r="28" spans="1:5">
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="E13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13">
-        <v>12</v>
-      </c>
-      <c r="I13" t="s">
+    <row r="29" spans="1:5">
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s">
         <v>148</v>
       </c>
-      <c r="J13" t="s">
+    </row>
+    <row r="30" spans="1:5">
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="E14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s">
+    <row r="31" spans="1:5">
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" t="s">
         <v>150</v>
       </c>
-      <c r="J14" t="s">
+    </row>
+    <row r="32" spans="1:5">
+      <c r="C32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="E15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15">
-        <v>14</v>
-      </c>
-      <c r="I15" t="s">
+    <row r="33" spans="1:5">
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" t="s">
         <v>152</v>
       </c>
-      <c r="J15" t="s">
+    </row>
+    <row r="34" spans="1:5">
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="E16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
+    <row r="35" spans="1:5">
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
         <v>154</v>
       </c>
-      <c r="J16" t="s">
+    </row>
+    <row r="36" spans="1:5">
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="E17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17">
-        <v>16</v>
-      </c>
-      <c r="I17" t="s">
+    <row r="37" spans="1:5">
+      <c r="C37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" t="s">
         <v>156</v>
       </c>
-      <c r="J17" t="s">
+    </row>
+    <row r="38" spans="1:5">
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="E18" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18">
-        <v>17</v>
-      </c>
-      <c r="I18" t="s">
+    <row r="39" spans="1:5">
+      <c r="C39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" t="s">
         <v>158</v>
       </c>
-      <c r="J18" t="s">
+    </row>
+    <row r="40" spans="1:5">
+      <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="E19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19">
-        <v>18</v>
-      </c>
-      <c r="I19" t="s">
+    <row r="41" spans="1:5">
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" t="s">
         <v>160</v>
       </c>
-      <c r="J19" t="s">
+    </row>
+    <row r="42" spans="1:5">
+      <c r="C42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="E20" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20">
-        <v>19</v>
-      </c>
-      <c r="I20" t="s">
+    <row r="43" spans="1:5">
+      <c r="C43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" t="s">
         <v>162</v>
       </c>
-      <c r="J20" t="s">
+    </row>
+    <row r="44" spans="1:5">
+      <c r="C44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="E21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s">
+    <row r="45" spans="1:5">
+      <c r="C45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" t="s">
         <v>164</v>
       </c>
-      <c r="J21" t="s">
+    </row>
+    <row r="46" spans="1:5">
+      <c r="C46" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="E22" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22">
-        <v>21</v>
-      </c>
-      <c r="I22" t="s">
+    <row r="47" spans="1:5">
+      <c r="C47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" t="s">
         <v>166</v>
       </c>
-      <c r="J22" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="E23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23">
-        <v>22</v>
-      </c>
-      <c r="I23" t="s">
-        <v>168</v>
-      </c>
-      <c r="J23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="E24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24">
-        <v>23</v>
-      </c>
-      <c r="I24" t="s">
-        <v>170</v>
-      </c>
-      <c r="J24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="E25" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25">
-        <v>24</v>
-      </c>
-      <c r="I25" t="s">
-        <v>172</v>
-      </c>
-      <c r="J25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="E26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26">
-        <v>25</v>
-      </c>
-      <c r="I26" t="s">
-        <v>174</v>
-      </c>
-      <c r="J26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="E27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27">
-        <v>26</v>
-      </c>
-      <c r="I27" t="s">
-        <v>176</v>
-      </c>
-      <c r="J27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="E28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28">
-        <v>27</v>
-      </c>
-      <c r="I28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="E29" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29">
-        <v>28</v>
-      </c>
-      <c r="I29" t="s">
-        <v>180</v>
-      </c>
-      <c r="J29" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="E30" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30">
-        <v>29</v>
-      </c>
-      <c r="I30" t="s">
-        <v>182</v>
-      </c>
-      <c r="J30" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="E31" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31">
-        <v>30</v>
-      </c>
-      <c r="I31" t="s">
-        <v>184</v>
-      </c>
-      <c r="J31" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="E32" t="s">
-        <v>106</v>
-      </c>
-      <c r="F32">
-        <v>31</v>
-      </c>
-      <c r="I32" t="s">
-        <v>186</v>
-      </c>
-      <c r="J32" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="E33" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33">
-        <v>32</v>
-      </c>
-      <c r="I33" t="s">
-        <v>188</v>
-      </c>
-      <c r="J33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="E34" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34">
-        <v>33</v>
-      </c>
-      <c r="I34" t="s">
-        <v>190</v>
-      </c>
-      <c r="J34" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="E35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F35">
-        <v>34</v>
-      </c>
-      <c r="I35" t="s">
-        <v>192</v>
-      </c>
-      <c r="J35" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="E36" t="s">
-        <v>110</v>
-      </c>
-      <c r="F36">
-        <v>35</v>
-      </c>
-      <c r="I36" t="s">
-        <v>194</v>
-      </c>
-      <c r="J36" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="E37" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37">
-        <v>36</v>
-      </c>
-      <c r="I37" t="s">
-        <v>196</v>
-      </c>
-      <c r="J37" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="E38" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38">
-        <v>37</v>
-      </c>
-      <c r="I38" t="s">
-        <v>198</v>
-      </c>
-      <c r="J38" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="E39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F39">
-        <v>38</v>
-      </c>
-      <c r="I39" t="s">
-        <v>200</v>
-      </c>
-      <c r="J39" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="E40" t="s">
-        <v>114</v>
-      </c>
-      <c r="F40">
-        <v>39</v>
-      </c>
-      <c r="I40" t="s">
-        <v>202</v>
-      </c>
-      <c r="J40" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="E41" t="s">
-        <v>115</v>
-      </c>
-      <c r="F41">
-        <v>40</v>
-      </c>
-      <c r="I41" t="s">
-        <v>204</v>
-      </c>
-      <c r="J41" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="E42" t="s">
+    </row>
+    <row r="48" spans="1:5">
+      <c r="C48" t="s">
         <v>116</v>
       </c>
-      <c r="F42">
-        <v>41</v>
-      </c>
-      <c r="I42" t="s">
-        <v>206</v>
-      </c>
-      <c r="J42" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="E43" t="s">
+    </row>
+    <row r="49" spans="1:5">
+      <c r="C49" t="s">
         <v>117</v>
       </c>
-      <c r="F43">
-        <v>42</v>
-      </c>
-      <c r="I43" t="s">
-        <v>208</v>
-      </c>
-      <c r="J43" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="E44" t="s">
+    </row>
+    <row r="50" spans="1:5">
+      <c r="C50" t="s">
         <v>118</v>
       </c>
-      <c r="F44">
-        <v>43</v>
-      </c>
-      <c r="I44" t="s">
-        <v>210</v>
-      </c>
-      <c r="J44" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="E45" t="s">
+    </row>
+    <row r="51" spans="1:5">
+      <c r="C51" t="s">
         <v>119</v>
       </c>
-      <c r="F45">
-        <v>44</v>
-      </c>
-      <c r="I45" t="s">
-        <v>212</v>
-      </c>
-      <c r="J45" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="E46" t="s">
+    </row>
+    <row r="52" spans="1:5">
+      <c r="C52" t="s">
         <v>120</v>
-      </c>
-      <c r="F46">
-        <v>45</v>
-      </c>
-      <c r="I46" t="s">
-        <v>214</v>
-      </c>
-      <c r="J46" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="E47" t="s">
-        <v>121</v>
-      </c>
-      <c r="F47">
-        <v>46</v>
-      </c>
-      <c r="I47" t="s">
-        <v>216</v>
-      </c>
-      <c r="J47" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="E48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="E49" t="s">
-        <v>123</v>
-      </c>
-      <c r="F49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="E50" t="s">
-        <v>124</v>
-      </c>
-      <c r="F50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="E51" t="s">
-        <v>125</v>
-      </c>
-      <c r="F51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="E52" t="s">
-        <v>126</v>
-      </c>
-      <c r="F52">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
